--- a/data/trans_camb/P57_AC_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P57_AC_R-Edad-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>dukeCdic</t>
+          <t>Población con apoyo confidencial bajo (Duke)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P57_AC_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P57_AC_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P57_AC_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P57_AC_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,73</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,12</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,94</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,54</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,72; 4,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,15; 22,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,75; -3,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,41; 6,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,2; 19,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,65; -5,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,82; 3,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,83; 18,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,96; -7,23</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,87%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,32%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,06%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,51%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,93%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,6%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,63; 8,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,43; 39,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,32; -6,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,51; 11,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,96; 33,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,75; -9,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,87; 6,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,43; 32,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,41; -12,08</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,17</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,29</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,46</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,34</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,94</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,73; 4,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,09; 18,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,92; 3,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 8,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,08; 17,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,31; -6,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,17; 5,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,6; 16,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,17; -2,4</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,05%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,86%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,7%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,31%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,84; 7,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,8; 31,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,85; 5,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,3; 13,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,25; 27,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,79; -9,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,28; 8,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,51; 26,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,74; -3,75</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,22</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,29</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,67</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,57</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,42</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,47</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,92; 5,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,41; 14,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,57; -1,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,05; 10,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,98; 14,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,74; -4,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,97; 5,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,97; 12,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,53; -4,78</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,35%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,59%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,81%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,66%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,56%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,19%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,13; 7,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,15; 22,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,57; -1,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,19; 15,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,99; 21,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,31; -6,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,37; 8,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,37; 18,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,51; -6,95</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,06</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,64</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,75</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,91</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,19</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,98</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,87</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,9; 3,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,73; 15,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,17; -6,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,15; 14,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,74; 18,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,14; -0,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,97; 6,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,24; 15,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,34; -5,63</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,18%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,17%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,22%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,91%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,87%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,02%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,65; 5,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,35; 22,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,57; -9,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,48; 21,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,04; 29,11</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,47; -1,13</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,27; 10,49</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,39; 23,01</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,12; -8,17</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,29</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,86</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,24</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,82</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,69</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,0</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,32</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,41; 0,4</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,1; 16,9</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,01; 4,3</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,18; 2,99</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,19; 12,69</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,85; 0,66</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,45; -0,49</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,87; 12,81</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,39; 0,43</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,94%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,42%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,34%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,15%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,29%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,37%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,5%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,08; 0,57</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,88; 25,02</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,39; 6,43</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,52; 4,1</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,76; 17,03</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,39; 0,59</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,55; -0,69</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,47; 18,13</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,84; 0,65</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,69</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,01</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,47</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,76</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,02</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,88</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,3; 1,63</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,46; 7,53</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,51; -4,09</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,18; 1,3</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,0; 12,17</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,63; -4,98</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,55; 0,17</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,07; 9,18</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,48; -5,65</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,73%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,54%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,46%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,01%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,01%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,25%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,61; 2,19</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,02; 10,03</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,69; -5,23</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,91; 1,65</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,93; 15,83</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,31; -6,44</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,21; 0,05</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,87; 11,92</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,21; -7,31</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,07</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,47</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,36</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,46</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,23</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,95</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,83; 0,86</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,16; 13,3</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,03; -3,76</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 4,84</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,25; 13,3</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,68; -5,44</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,09; 2,15</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,83; 12,8</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,07; -5,16</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,4%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,28%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,51%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,07%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,55%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,18%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,02%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,53; 1,31</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,23; 20,02</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,6; -5,61</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,43; 6,98</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,77; 19,14</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,58; -7,85</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,55; 3,13</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,05; 18,72</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,95; -7,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57_AC_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P57_AC_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-12,98</t>
+          <t>-15,42</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-14,12</t>
+          <t>-16,47</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-13,54</t>
+          <t>-15,99</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,75; -3,64</t>
+          <t>-25,28; -6,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-23,65; -5,74</t>
+          <t>-25,72; -8,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-19,96; -7,23</t>
+          <t>-22,5; -9,16</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-22,06%</t>
+          <t>-26,21%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-23,12%</t>
+          <t>-26,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-22,6%</t>
+          <t>-26,69%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-37,32; -6,72</t>
+          <t>-42,46; -11,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,75; -9,57</t>
+          <t>-40,3; -13,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-32,41; -12,08</t>
+          <t>-36,95; -15,33</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,19</t>
+          <t>-4,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-12,46</t>
+          <t>-19,05</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-7,94</t>
+          <t>-12,04</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 3,37</t>
+          <t>-11,94; 2,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,31; -6,28</t>
+          <t>-36,83; -9,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-13,17; -2,4</t>
+          <t>-24,91; -5,7</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,05%</t>
+          <t>-6,59%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-18,86%</t>
+          <t>-28,84%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-12,31%</t>
+          <t>-18,67%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,85; 5,51</t>
+          <t>-18,42; 4,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,79; -9,72</t>
+          <t>-55,09; -13,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-19,74; -3,75</t>
+          <t>-37,67; -8,95</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,29</t>
+          <t>-8,23</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-9,57</t>
+          <t>-10,13</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-8,47</t>
+          <t>-9,2</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,57; -1,12</t>
+          <t>-13,51; -2,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,74; -4,46</t>
+          <t>-15,32; -4,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,53; -4,78</t>
+          <t>-13,39; -5,39</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-10,59%</t>
+          <t>-11,95%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-13,66%</t>
+          <t>-14,46%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-12,19%</t>
+          <t>-13,25%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,57; -1,76</t>
+          <t>-18,89; -3,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,31; -6,81</t>
+          <t>-21,05; -7,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-17,51; -6,95</t>
+          <t>-18,69; -7,93</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-13,64</t>
+          <t>-26,78</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-6,19</t>
+          <t>-8,95</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-9,87</t>
+          <t>-18,8</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-28,17; -6,57</t>
+          <t>-53,17; -8,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,14; -0,71</t>
+          <t>-18,05; -2,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-17,34; -5,63</t>
+          <t>-37,96; -7,85</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-19,22%</t>
+          <t>-37,73%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-8,87%</t>
+          <t>-12,81%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-14,02%</t>
+          <t>-26,7%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-39,57; -9,73</t>
+          <t>-72,32; -11,36</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-15,47; -1,13</t>
+          <t>-25,96; -4,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-24,12; -8,17</t>
+          <t>-54,07; -11,24</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>-2,49</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-4,82</t>
+          <t>-5,31</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>-3,99</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 4,3</t>
+          <t>-7,87; 3,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 0,66</t>
+          <t>-10,37; 0,16</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 0,43</t>
+          <t>-8,06; -0,16</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-2,34%</t>
+          <t>-3,53%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-6,29%</t>
+          <t>-6,93%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-4,5%</t>
+          <t>-5,43%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 6,43</t>
+          <t>-10,68; 5,32</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-12,39; 0,59</t>
+          <t>-13,0; -0,13</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 0,65</t>
+          <t>-10,65; -0,23</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-3,69</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-9,01</t>
+          <t>-10,98</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>8,47</t>
+          <t>11,08</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-8,76</t>
+          <t>-12,05</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-3,16</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>6,02</t>
+          <t>6,35</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-8,88</t>
+          <t>-11,54</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 1,63</t>
+          <t>-10,25; 3,78</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 7,53</t>
+          <t>-5,64; 7,86</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-13,51; -4,09</t>
+          <t>-17,29; -4,84</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 1,3</t>
+          <t>-6,92; 5,1</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,0; 12,17</t>
+          <t>6,23; 16,61</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-12,63; -4,98</t>
+          <t>-17,34; -6,54</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 0,17</t>
+          <t>-6,93; 2,18</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>3,07; 9,18</t>
+          <t>2,03; 10,43</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-11,48; -5,65</t>
+          <t>-15,52; -7,33</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-4,73%</t>
+          <t>-4,74%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-11,54%</t>
+          <t>-14,21%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-3,46%</t>
+          <t>-1,41%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>14,27%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-11,01%</t>
+          <t>-15,51%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-4,01%</t>
+          <t>-2,97%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-11,25%</t>
+          <t>-14,9%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-11,61; 2,19</t>
+          <t>-12,67; 5,22</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 10,03</t>
+          <t>-6,97; 10,58</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-16,69; -5,23</t>
+          <t>-21,56; -6,63</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 1,65</t>
+          <t>-8,53; 6,9</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>4,93; 15,83</t>
+          <t>7,71; 22,44</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-15,31; -6,44</t>
+          <t>-21,37; -8,76</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 0,05</t>
+          <t>-8,72; 2,96</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>3,87; 11,92</t>
+          <t>2,47; 13,97</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-14,21; -7,31</t>
+          <t>-19,44; -9,78</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>-3,85</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>11,07</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-6,47</t>
+          <t>-8,27</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>-4,49</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>11,36</t>
+          <t>5,85</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-7,46</t>
+          <t>-7,04</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>-4,25</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>11,23</t>
+          <t>5,54</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-6,95</t>
+          <t>-7,56</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 0,86</t>
+          <t>-11,5; 3,87</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>9,16; 13,3</t>
+          <t>-1,3; 12,24</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-10,03; -3,76</t>
+          <t>-14,95; -0,56</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,29; 4,84</t>
+          <t>-10,63; 1,72</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>9,25; 13,3</t>
+          <t>-0,34; 11,62</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-9,68; -5,44</t>
+          <t>-12,1; -1,58</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 2,15</t>
+          <t>-8,99; 0,6</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>9,83; 12,8</t>
+          <t>1,02; 10,21</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-9,07; -5,16</t>
+          <t>-12,04; -3,17</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-2,4%</t>
+          <t>-4,86%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>16,28%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-9,51%</t>
+          <t>-10,44%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>-5,5%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-10,55%</t>
+          <t>-8,64%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>-5,27%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-10,02%</t>
+          <t>-9,37%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-13,88; 4,97</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-1,59; 16,49</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-18,2; -0,82</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-12,63; 2,13</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-0,45; 15,01</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-14,57; -2,11</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-10,94; 0,72</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>1,21; 13,18</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-14,26; -4,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-1,63</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>11,07</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-11,15</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>2,48</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>11,36</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-9,66</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>11,23</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-10,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-3,83; 0,86</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>9,16; 13,3</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-25,18; -5,87</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>0,29; 4,84</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>9,25; 13,3</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-14,12; -7,2</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-1,09; 2,15</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>9,83; 12,8</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-18,0; -7,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-2,4%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>16,28%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-16,4%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>3,5%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>16,07%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-13,66%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,68%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>16,18%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-15,04%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-5,53; 1,31</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>13,23; 20,02</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-14,6; -5,61</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-37,14; -8,7</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>0,43; 6,98</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>12,77; 19,14</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-13,58; -7,85</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-19,91; -10,29</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-1,55; 3,13</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>14,05; 18,72</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-12,95; -7,52</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-25,95; -10,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P57_AC_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P57_AC_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 4,71</t>
+          <t>-7,9; 4,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,15; 22,25</t>
+          <t>9,67; 22,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-25,28; -6,34</t>
+          <t>-24,92; -5,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 6,62</t>
+          <t>-5,74; 7,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,2; 19,36</t>
+          <t>7,51; 19,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-25,72; -8,04</t>
+          <t>-25,01; -7,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 3,81</t>
+          <t>-4,93; 4,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,83; 18,92</t>
+          <t>10,61; 19,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-22,5; -9,16</t>
+          <t>-22,56; -8,58</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 8,5</t>
+          <t>-12,94; 9,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,43; 39,96</t>
+          <t>15,62; 40,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-42,46; -11,14</t>
+          <t>-41,11; -10,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 11,23</t>
+          <t>-8,93; 13,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,96; 33,2</t>
+          <t>12,16; 35,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,3; -13,47</t>
+          <t>-39,89; -13,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 6,62</t>
+          <t>-8,06; 7,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,43; 32,74</t>
+          <t>17,06; 33,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-36,95; -15,33</t>
+          <t>-36,74; -14,79</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 4,68</t>
+          <t>-5,81; 4,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,09; 18,9</t>
+          <t>8,81; 19,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 2,48</t>
+          <t>-11,74; 3,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 8,95</t>
+          <t>-2,47; 8,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,08; 17,37</t>
+          <t>7,1; 17,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-36,83; -9,08</t>
+          <t>-34,89; -9,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 5,32</t>
+          <t>-2,02; 5,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,6; 16,56</t>
+          <t>10,12; 16,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-24,91; -5,7</t>
+          <t>-25,84; -5,76</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 7,71</t>
+          <t>-8,82; 7,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,8; 31,16</t>
+          <t>13,38; 31,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,42; 4,09</t>
+          <t>-18,08; 4,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 13,87</t>
+          <t>-3,7; 13,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,25; 27,77</t>
+          <t>10,07; 27,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-55,09; -13,92</t>
+          <t>-52,89; -13,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 8,45</t>
+          <t>-3,08; 8,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,51; 26,48</t>
+          <t>14,85; 26,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-37,67; -8,95</t>
+          <t>-40,1; -9,15</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 5,05</t>
+          <t>-5,35; 4,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,41; 14,64</t>
+          <t>4,32; 14,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,51; -2,03</t>
+          <t>-13,98; -2,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 10,26</t>
+          <t>-0,44; 9,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,98; 14,62</t>
+          <t>5,08; 14,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,32; -4,99</t>
+          <t>-14,98; -5,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 5,94</t>
+          <t>-1,31; 6,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,97; 12,69</t>
+          <t>6,2; 12,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-13,39; -5,39</t>
+          <t>-13,16; -5,22</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 7,68</t>
+          <t>-7,56; 7,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,15; 22,23</t>
+          <t>6,11; 21,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-18,89; -3,18</t>
+          <t>-19,68; -3,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 15,17</t>
+          <t>-0,63; 14,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,99; 21,79</t>
+          <t>6,9; 21,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,05; -7,49</t>
+          <t>-20,83; -7,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 8,78</t>
+          <t>-1,83; 8,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,37; 18,8</t>
+          <t>8,7; 19,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-18,69; -7,93</t>
+          <t>-18,5; -7,89</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 3,81</t>
+          <t>-7,5; 3,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,73; 15,38</t>
+          <t>4,99; 15,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-53,17; -8,01</t>
+          <t>-52,34; -7,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,15; 14,4</t>
+          <t>3,69; 13,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,74; 18,99</t>
+          <t>9,13; 18,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-18,05; -2,8</t>
+          <t>-18,34; -3,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 6,89</t>
+          <t>-0,73; 7,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,24; 15,6</t>
+          <t>8,15; 15,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-37,96; -7,85</t>
+          <t>-39,28; -7,7</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 5,65</t>
+          <t>-10,3; 5,15</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,35; 22,86</t>
+          <t>6,88; 22,83</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-72,32; -11,36</t>
+          <t>-71,57; -11,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,48; 21,61</t>
+          <t>5,1; 20,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>12,04; 29,11</t>
+          <t>12,46; 28,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-25,96; -4,26</t>
+          <t>-26,07; -5,29</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 10,49</t>
+          <t>-1,02; 10,34</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,39; 23,01</t>
+          <t>11,19; 22,8</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-54,07; -11,24</t>
+          <t>-55,67; -10,88</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-13,41; 0,4</t>
+          <t>-13,28; 0,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,1; 16,9</t>
+          <t>4,9; 16,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 3,55</t>
+          <t>-8,57; 3,41</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 2,99</t>
+          <t>-8,84; 2,99</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,19; 12,69</t>
+          <t>1,91; 12,67</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 0,16</t>
+          <t>-10,35; 0,25</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-9,45; -0,49</t>
+          <t>-9,55; -0,54</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,87; 12,81</t>
+          <t>4,9; 12,94</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,06; -0,16</t>
+          <t>-7,58; -0,05</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-18,08; 0,57</t>
+          <t>-18,07; 0,31</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>6,88; 25,02</t>
+          <t>6,52; 24,72</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 5,32</t>
+          <t>-11,66; 5,15</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 4,1</t>
+          <t>-11,19; 4,17</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>2,76; 17,03</t>
+          <t>2,55; 17,28</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-13,0; -0,13</t>
+          <t>-12,95; 0,37</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-12,55; -0,69</t>
+          <t>-12,32; -0,78</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>6,47; 18,13</t>
+          <t>6,41; 18,34</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-10,65; -0,23</t>
+          <t>-10,14; -0,07</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 3,78</t>
+          <t>-10,33; 3,55</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 7,86</t>
+          <t>-5,59; 7,77</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-17,29; -4,84</t>
+          <t>-16,65; -4,08</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 5,1</t>
+          <t>-7,02; 5,22</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>6,23; 16,61</t>
+          <t>5,56; 16,17</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-17,34; -6,54</t>
+          <t>-17,25; -6,29</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 2,18</t>
+          <t>-6,78; 1,98</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,03; 10,43</t>
+          <t>2,14; 10,77</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-15,52; -7,33</t>
+          <t>-15,62; -7,88</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-12,67; 5,22</t>
+          <t>-12,95; 4,77</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 10,58</t>
+          <t>-6,79; 10,58</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-21,56; -6,63</t>
+          <t>-20,59; -5,88</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 6,9</t>
+          <t>-8,68; 7,04</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>7,71; 22,44</t>
+          <t>7,19; 21,98</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-21,37; -8,76</t>
+          <t>-21,38; -8,5</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 2,96</t>
+          <t>-8,51; 2,62</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>2,47; 13,97</t>
+          <t>2,61; 14,24</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-19,44; -9,78</t>
+          <t>-19,44; -10,39</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-11,5; 3,87</t>
+          <t>-10,98; 4,65</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 12,24</t>
+          <t>-1,7; 12,5</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-14,95; -0,56</t>
+          <t>-15,6; -1,44</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 1,72</t>
+          <t>-10,61; 1,83</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 11,62</t>
+          <t>0,03; 11,57</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-12,1; -1,58</t>
+          <t>-12,09; -1,96</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 0,6</t>
+          <t>-9,73; 0,42</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,02; 10,21</t>
+          <t>1,09; 10,22</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-12,04; -3,17</t>
+          <t>-11,8; -3,21</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-13,88; 4,97</t>
+          <t>-13,54; 5,96</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 16,49</t>
+          <t>-2,25; 16,58</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-18,2; -0,82</t>
+          <t>-18,47; -1,94</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 2,13</t>
+          <t>-12,65; 2,32</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 15,01</t>
+          <t>0,1; 15,0</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-14,57; -2,11</t>
+          <t>-14,28; -2,51</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 0,72</t>
+          <t>-11,73; 0,55</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>1,21; 13,18</t>
+          <t>1,23; 12,93</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-14,26; -4,08</t>
+          <t>-14,1; -4,06</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 0,86</t>
+          <t>-4,01; 0,73</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>9,16; 13,3</t>
+          <t>8,83; 13,18</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-25,18; -5,87</t>
+          <t>-24,46; -5,9</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>0,29; 4,84</t>
+          <t>0,33; 4,83</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>9,25; 13,3</t>
+          <t>9,4; 13,2</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-14,12; -7,2</t>
+          <t>-14,34; -6,99</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 2,15</t>
+          <t>-1,1; 2,12</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>9,83; 12,8</t>
+          <t>9,61; 12,85</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-18,0; -7,47</t>
+          <t>-17,94; -7,58</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 1,31</t>
+          <t>-5,83; 1,05</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>13,23; 20,02</t>
+          <t>12,78; 19,81</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-37,14; -8,7</t>
+          <t>-36,54; -8,82</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>0,43; 6,98</t>
+          <t>0,46; 6,94</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>12,77; 19,14</t>
+          <t>13,07; 18,98</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-19,91; -10,29</t>
+          <t>-20,4; -10,11</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 3,13</t>
+          <t>-1,56; 3,1</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>14,05; 18,72</t>
+          <t>13,69; 18,79</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-25,95; -10,86</t>
+          <t>-26,11; -10,98</t>
         </is>
       </c>
     </row>
